--- a/data/discussion/2_dynamics.xlsx
+++ b/data/discussion/2_dynamics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sousa\Dev\slr-ltlm-mr\data\discussion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31375C7-26C8-4221-A8EA-EFF033DC4BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0C56AD-C4E1-4970-8DC3-B1F1C90E6F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="266">
   <si>
     <t>old notes</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>dynamic map as set of local maps to represent multiple timescales</t>
-  </si>
-  <si>
-    <t>STM + LTM</t>
   </si>
   <si>
     <t>1 STM map + several LTM maps &gt;&gt; dynamic map as set of local maps to represent multiple timescales</t>
@@ -345,9 +342,6 @@
   </si>
   <si>
     <t>combine occupancy + NDT oncepts to store additional occupancy value to represent free space explicitly</t>
-  </si>
-  <si>
-    <t>dynamics modeling</t>
   </si>
   <si>
     <t>dynamic occupancy grid</t>
@@ -419,9 +413,6 @@
 threshold to define if static or dynamic</t>
   </si>
   <si>
-    <t>static-dynamic maps</t>
-  </si>
-  <si>
     <t>use dynamic cell classification to detect + track dyn objs</t>
   </si>
   <si>
@@ -440,9 +431,6 @@
     <t>reliability measure improved classic MCL e.g. 83% all position estimations position error &lt; 0.2m, while MCL attains this accuracy only on 68% of all position estimations</t>
   </si>
   <si>
-    <t>periodic changes</t>
-  </si>
-  <si>
     <t>krajník-et-al:2017:2665664 implemented withn exploration scheme</t>
   </si>
   <si>
@@ -507,9 +495,6 @@
   </si>
   <si>
     <t>effect of envuronment changes slightly lower through use of roposed dynamic map (FreMEn)</t>
-  </si>
-  <si>
-    <t>dynamic objs semantic classification</t>
   </si>
   <si>
     <t>segment potential dynamic classes (person, bicycle, car, …)</t>
@@ -559,9 +544,6 @@
     <t>classification of cars pedestrians cyclists and background based on LIDAR</t>
   </si>
   <si>
-    <t>ray tracing</t>
-  </si>
-  <si>
     <t>ray tracing-based to detect existing elements vs new objs</t>
   </si>
   <si>
@@ -637,9 +619,6 @@
     <t>identify measurements based on TSDF into dynamic, static or semi-static</t>
   </si>
   <si>
-    <t>NN-based</t>
-  </si>
-  <si>
     <t>MD-Net estimate motion attribute + compute descriptor for each point in gray img</t>
   </si>
   <si>
@@ -738,9 +717,6 @@
   </si>
   <si>
     <t>CNN predict dynamic motion labels given single lidar frames as input</t>
-  </si>
-  <si>
-    <t>pointray: ray tracing movable probabilities</t>
   </si>
   <si>
     <t>pointray: ray tracing movable probabilities
@@ -867,6 +843,18 @@
   </si>
   <si>
     <t>significantly lower weights to sky class and dynamic classes minimizing impact of dynamic objects in place recognition</t>
+  </si>
+  <si>
+    <t>map representation</t>
+  </si>
+  <si>
+    <t>map matching</t>
+  </si>
+  <si>
+    <t>prediction modeling</t>
+  </si>
+  <si>
+    <t>dynamic objects detection</t>
   </si>
 </sst>
 </file>
@@ -895,12 +883,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -915,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -925,23 +919,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1225,15 +1211,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AS12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="20.7109375" style="4"/>
+    <col min="1" max="1" width="10.6640625" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="20.6640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="2" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" s="2" customFormat="1" ht="30.6" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -1288,8 +1274,8 @@
       <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>256</v>
+      <c r="T1" s="3" t="s">
+        <v>248</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>20</v>
@@ -1316,7 +1302,7 @@
         <v>27</v>
       </c>
       <c r="AC1" s="3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="AD1" s="3" t="s">
         <v>28</v>
@@ -1343,7 +1329,7 @@
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
     </row>
-    <row r="2" spans="1:45" ht="258.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="214.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1388,7 @@
         <v>49</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="U2" s="4" t="s">
         <v>50</v>
@@ -1429,7 +1415,7 @@
         <v>57</v>
       </c>
       <c r="AC2" s="4" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="AD2" s="4" t="s">
         <v>58</v>
@@ -1444,7 +1430,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" ht="51" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1452,604 +1438,604 @@
         <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y3" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="Z3" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="AC3" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="AE3" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF3" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="AG3" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="122.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y4" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="Z4" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="AA4" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="AC4" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="AD4" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AE4" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG4" s="4" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="112.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y5" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AD5" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="AG5" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="102" x14ac:dyDescent="0.3">
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L6" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="Y6" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="AE6" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="AG6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:45" ht="122.4" x14ac:dyDescent="0.3">
+      <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L7" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="M3" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="N3" s="4" t="s">
+      <c r="M7" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y7" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD7" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE7" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="AG7" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" ht="102" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD8" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="AE8" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="AG8" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="102" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="O3" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="R3" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="P9" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="T3" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="AD3" s="4" t="s">
+      <c r="T9" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="71.400000000000006" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD10" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="AE3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="AF3" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="AG3" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="157.5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="R4" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="S4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="V4" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="W4" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="X4" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="Y4" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="Z4" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="AA4" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB4" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AC4" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="AD4" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="AE4" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="AF4" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="AG4" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" ht="146.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="R5" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="S5" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="W5" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="X5" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="Y5" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA5" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB5" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="AD5" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE5" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="AF5" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="AG5" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="O6" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="R6" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="S6" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="V6" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="W6" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="X6" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="Y6" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA6" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AB6" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="AD6" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE6" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF6" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG6" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" ht="135" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="R7" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="S7" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="T7" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="U7" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="V7" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="W7" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y7" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA7" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="AD7" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="AE7" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="AG7" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="AD8" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="AE8" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="AG8" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+    </row>
+    <row r="11" spans="1:45" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="N10" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="S10" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="AD10" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+    </row>
+    <row r="12" spans="1:45" ht="51" x14ac:dyDescent="0.3">
+      <c r="B12" s="4" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2060,22 +2046,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ECF5614-2764-49A2-9EAF-B86313F36EF1}">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>63</v>
+      <c r="A1" s="5" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -2083,221 +2069,243 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
-        <v>125</v>
+      <c r="A6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>4</v>
+      <c r="A7" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>187</v>
-      </c>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="F19" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>30</v>
-      </c>
       <c r="F21" s="1" t="s">
-        <v>246</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
+      <c r="A22" s="8"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>171</v>
+        <v>264</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
+      <c r="F29" s="1" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
-        <v>132</v>
-      </c>
+      <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>133</v>
+      <c r="A31" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>196</v>
+      <c r="A35" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -2305,92 +2313,47 @@
         <v>22</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>229</v>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
-        <v>155</v>
+      <c r="A39" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>16</v>
+      <c r="A40" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>17</v>
+      <c r="A41" s="6" t="s">
+        <v>258</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
